--- a/Occupations/Occupations_v2.xlsx
+++ b/Occupations/Occupations_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\RUME-NEEMSIS\Occupations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B939E1-DE31-4875-A90A-2E0A601DC56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36494BC-9029-4ABA-B560-C1FEBBBFE089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8124" yWindow="2292" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="36" windowWidth="11364" windowHeight="12312" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUME" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1143">
   <si>
     <t>occupationname</t>
   </si>
@@ -16360,13 +16360,13 @@
   <dimension ref="B3:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C48"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="67.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
